--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.36733066666667</v>
+        <v>10.088846</v>
       </c>
       <c r="H2">
-        <v>31.101992</v>
+        <v>30.266538</v>
       </c>
       <c r="I2">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="J2">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>1025.813406091403</v>
+        <v>1696.034159052591</v>
       </c>
       <c r="R2">
-        <v>9232.320654822624</v>
+        <v>15264.30743147332</v>
       </c>
       <c r="S2">
-        <v>0.02453263244239954</v>
+        <v>0.03436124242383793</v>
       </c>
       <c r="T2">
-        <v>0.02453263244239954</v>
+        <v>0.03436124242383794</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.36733066666667</v>
+        <v>10.088846</v>
       </c>
       <c r="H3">
-        <v>31.101992</v>
+        <v>30.266538</v>
       </c>
       <c r="I3">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="J3">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>1689.939545884927</v>
+        <v>1644.544808680707</v>
       </c>
       <c r="R3">
-        <v>15209.45591296435</v>
+        <v>14800.90327812637</v>
       </c>
       <c r="S3">
-        <v>0.04041540643053014</v>
+        <v>0.03331808062138785</v>
       </c>
       <c r="T3">
-        <v>0.04041540643053015</v>
+        <v>0.03331808062138785</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.36733066666667</v>
+        <v>10.088846</v>
       </c>
       <c r="H4">
-        <v>31.101992</v>
+        <v>30.266538</v>
       </c>
       <c r="I4">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="J4">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>1495.723789248098</v>
+        <v>1674.68316116638</v>
       </c>
       <c r="R4">
-        <v>13461.51410323288</v>
+        <v>15072.14845049742</v>
       </c>
       <c r="S4">
-        <v>0.03577067889645724</v>
+        <v>0.03392867636351238</v>
       </c>
       <c r="T4">
-        <v>0.03577067889645724</v>
+        <v>0.03392867636351238</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.36733066666667</v>
+        <v>10.088846</v>
       </c>
       <c r="H5">
-        <v>31.101992</v>
+        <v>30.266538</v>
       </c>
       <c r="I5">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="J5">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>677.983062125938</v>
+        <v>668.1513237719128</v>
       </c>
       <c r="R5">
-        <v>6101.847559133442</v>
+        <v>6013.361913947214</v>
       </c>
       <c r="S5">
-        <v>0.01621416640350102</v>
+        <v>0.01353658444282727</v>
       </c>
       <c r="T5">
-        <v>0.01621416640350102</v>
+        <v>0.01353658444282727</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>113.744728</v>
       </c>
       <c r="I6">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572728</v>
       </c>
       <c r="J6">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572729</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>3751.556069290357</v>
+        <v>6373.868861385655</v>
       </c>
       <c r="R6">
-        <v>33764.00462361322</v>
+        <v>57364.8197524709</v>
       </c>
       <c r="S6">
-        <v>0.08971957822780968</v>
+        <v>0.129133043668275</v>
       </c>
       <c r="T6">
-        <v>0.08971957822780968</v>
+        <v>0.1291330436682751</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>113.744728</v>
       </c>
       <c r="I7">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572728</v>
       </c>
       <c r="J7">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572729</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
         <v>6180.366646069633</v>
@@ -883,10 +883,10 @@
         <v>55623.2998146267</v>
       </c>
       <c r="S7">
-        <v>0.1478053049287037</v>
+        <v>0.1252127355220419</v>
       </c>
       <c r="T7">
-        <v>0.1478053049287037</v>
+        <v>0.125212735522042</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>113.744728</v>
       </c>
       <c r="I8">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572728</v>
       </c>
       <c r="J8">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572729</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>5470.090004883103</v>
+        <v>6293.629639869947</v>
       </c>
       <c r="R8">
-        <v>49230.81004394792</v>
+        <v>56642.66675882952</v>
       </c>
       <c r="S8">
-        <v>0.1308188279854508</v>
+        <v>0.1275074164203301</v>
       </c>
       <c r="T8">
-        <v>0.1308188279854509</v>
+        <v>0.1275074164203301</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>113.744728</v>
       </c>
       <c r="I9">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572728</v>
       </c>
       <c r="J9">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572729</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>2479.487455019663</v>
+        <v>2510.980627691087</v>
       </c>
       <c r="R9">
-        <v>22315.38709517696</v>
+        <v>22598.82564921979</v>
       </c>
       <c r="S9">
-        <v>0.05929767930340157</v>
+        <v>0.05087186104662578</v>
       </c>
       <c r="T9">
-        <v>0.05929767930340157</v>
+        <v>0.05087186104662578</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.65680433333333</v>
+        <v>15.69885766666667</v>
       </c>
       <c r="H10">
-        <v>40.97041299999999</v>
+        <v>47.096573</v>
       </c>
       <c r="I10">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="J10">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>1351.296049092337</v>
+        <v>2639.13225167391</v>
       </c>
       <c r="R10">
-        <v>12161.66444183103</v>
+        <v>23752.19026506519</v>
       </c>
       <c r="S10">
-        <v>0.03231664657177931</v>
+        <v>0.05346818199640078</v>
       </c>
       <c r="T10">
-        <v>0.03231664657177931</v>
+        <v>0.05346818199640078</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.65680433333333</v>
+        <v>15.69885766666667</v>
       </c>
       <c r="H11">
-        <v>40.97041299999999</v>
+        <v>47.096573</v>
       </c>
       <c r="I11">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="J11">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>2226.144265612887</v>
+        <v>2559.011692510123</v>
       </c>
       <c r="R11">
-        <v>20035.29839051599</v>
+        <v>23031.10523259111</v>
       </c>
       <c r="S11">
-        <v>0.0532389016440386</v>
+        <v>0.05184495881904558</v>
       </c>
       <c r="T11">
-        <v>0.0532389016440386</v>
+        <v>0.05184495881904558</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.65680433333333</v>
+        <v>15.69885766666667</v>
       </c>
       <c r="H12">
-        <v>40.97041299999999</v>
+        <v>47.096573</v>
       </c>
       <c r="I12">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="J12">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>1970.305354699452</v>
+        <v>2605.908801057563</v>
       </c>
       <c r="R12">
-        <v>17732.74819229507</v>
+        <v>23453.17920951807</v>
       </c>
       <c r="S12">
-        <v>0.04712043806320305</v>
+        <v>0.05279508291128426</v>
       </c>
       <c r="T12">
-        <v>0.04712043806320305</v>
+        <v>0.05279508291128426</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.65680433333333</v>
+        <v>15.69885766666667</v>
       </c>
       <c r="H13">
-        <v>40.97041299999999</v>
+        <v>47.096573</v>
       </c>
       <c r="I13">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="J13">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>893.1018329084624</v>
+        <v>1039.684076027147</v>
       </c>
       <c r="R13">
-        <v>8037.91649617616</v>
+        <v>9357.156684244319</v>
       </c>
       <c r="S13">
-        <v>0.02135879573251003</v>
+        <v>0.0210637482682122</v>
       </c>
       <c r="T13">
-        <v>0.02135879573251003</v>
+        <v>0.0210637482682122</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>26.72147866666667</v>
+        <v>23.91632366666667</v>
       </c>
       <c r="H14">
-        <v>80.16443599999999</v>
+        <v>71.748971</v>
       </c>
       <c r="I14">
-        <v>0.3013909433702153</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="J14">
-        <v>0.3013909433702152</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>2644.002774502555</v>
+        <v>4020.569042051447</v>
       </c>
       <c r="R14">
-        <v>23796.02497052299</v>
+        <v>36185.12137846302</v>
       </c>
       <c r="S14">
-        <v>0.06323211205701106</v>
+        <v>0.0814557577147382</v>
       </c>
       <c r="T14">
-        <v>0.06323211205701106</v>
+        <v>0.08145575771473822</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>26.72147866666667</v>
+        <v>23.91632366666667</v>
       </c>
       <c r="H15">
-        <v>80.16443599999999</v>
+        <v>71.748971</v>
       </c>
       <c r="I15">
-        <v>0.3013909433702153</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="J15">
-        <v>0.3013909433702152</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>4355.767648900473</v>
+        <v>3898.509891888944</v>
       </c>
       <c r="R15">
-        <v>39201.90884010425</v>
+        <v>35086.5890270005</v>
       </c>
       <c r="S15">
-        <v>0.1041694777046506</v>
+        <v>0.07898286881306407</v>
       </c>
       <c r="T15">
-        <v>0.1041694777046506</v>
+        <v>0.07898286881306407</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>26.72147866666667</v>
+        <v>23.91632366666667</v>
       </c>
       <c r="H16">
-        <v>80.16443599999999</v>
+        <v>71.748971</v>
       </c>
       <c r="I16">
-        <v>0.3013909433702153</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="J16">
-        <v>0.3013909433702152</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>3855.182458308671</v>
+        <v>3969.954990052543</v>
       </c>
       <c r="R16">
-        <v>34696.64212477804</v>
+        <v>35729.59491047289</v>
       </c>
       <c r="S16">
-        <v>0.09219783411530671</v>
+        <v>0.08043032924591624</v>
       </c>
       <c r="T16">
-        <v>0.09219783411530671</v>
+        <v>0.08043032924591624</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>26.72147866666667</v>
+        <v>23.91632366666667</v>
       </c>
       <c r="H17">
-        <v>80.16443599999999</v>
+        <v>71.748971</v>
       </c>
       <c r="I17">
-        <v>0.3013909433702153</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="J17">
-        <v>0.3013909433702152</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>1747.480669176392</v>
+        <v>1583.900013702346</v>
       </c>
       <c r="R17">
-        <v>15727.32602258752</v>
+        <v>14255.10012332111</v>
       </c>
       <c r="S17">
-        <v>0.04179151949324685</v>
+        <v>0.03208943172250042</v>
       </c>
       <c r="T17">
-        <v>0.04179151949324685</v>
+        <v>0.03208943172250042</v>
       </c>
     </row>
   </sheetData>
